--- a/домашка 07.11.2018.xlsx
+++ b/домашка 07.11.2018.xlsx
@@ -78,10 +78,10 @@
     <t>убедиться, что отобразившиеся характеристики соответствуют выбранному товару</t>
   </si>
   <si>
-    <t>отобразившиеся характеристики соответстсвуют выбранному товару</t>
-  </si>
-  <si>
     <t>появилась страница с заголовоком "Подробные характеристики" и характеристиками товара</t>
+  </si>
+  <si>
+    <t>отобразившиеся характеристики соответствуют выбранному товару</t>
   </si>
 </sst>
 </file>
@@ -193,22 +193,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -508,7 +508,7 @@
   <dimension ref="A3:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B10" sqref="B10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -525,11 +525,11 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
@@ -538,11 +538,11 @@
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
@@ -551,23 +551,23 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="32.25" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="6"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2"/>
@@ -577,10 +577,10 @@
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="30">
       <c r="A8" s="2" t="s">
@@ -592,10 +592,10 @@
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="6"/>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="75">
       <c r="A9" s="2" t="s">
@@ -607,21 +607,21 @@
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="6"/>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/домашка 07.11.2018.xlsx
+++ b/домашка 07.11.2018.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexander.kobchenko/Documents/GitHub/QAtesterZoyaChekmeneva/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2D2BB7-1B66-9944-849E-1C8A696438CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23895" windowHeight="9975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,8 +21,57 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{AE48023A-551A-B543-AFBA-AD9282CC24E5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Слишком длинно, нужен краткий тэг, не более</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{2C425298-5239-E446-81A3-577E0E53D69E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Сравнить характеристики товара с указанными в базе данных (или в системе управления контентом)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Наименование тест-кейса:</t>
   </si>
@@ -66,9 +121,6 @@
     <t>кнопка "Характеристики" на странице товара в Яндекс Маркет</t>
   </si>
   <si>
-    <t>проверить, что функция кнопки "Характеристики" на странице товара в Яндекс Маркет работает корректно</t>
-  </si>
-  <si>
     <t>открыть браузер, зайти в Яндекс Маркет, открыть страницу товара</t>
   </si>
   <si>
@@ -82,13 +134,32 @@
   </si>
   <si>
     <t>отобразившиеся характеристики соответствуют выбранному товару</t>
+  </si>
+  <si>
+    <t>Характеристики</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">проверить, что функция кнопки "Характеристики" на странице товара в Яндекс Маркет работает корректно, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>при нажатии на кнопку должна открыться вкладка с полными характеристиками товара, при этом характеристики должны совпадать с указанными в базе данных.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ну и в целом мало тестов, хотя бы еще 2-3 надо было бы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +176,32 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -211,19 +308,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -261,9 +369,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,9 +403,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,9 +455,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -504,24 +648,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E10"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="28" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="27.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" ht="16">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -534,7 +678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="54" customHeight="1">
+    <row r="4" spans="1:6" ht="54" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -543,33 +687,36 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="35.25" customHeight="1">
+    <row r="5" spans="1:6" ht="35.25" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="32.25" customHeight="1">
+    <row r="6" spans="1:6" ht="32.25" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6" ht="16">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -582,37 +729,37 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="30">
+    <row r="8" spans="1:6" ht="38" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="75">
+    <row r="9" spans="1:6" ht="48">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
+      <c r="B9" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -622,6 +769,11 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="48">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -636,28 +788,29 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
